--- a/European_Coaching/day_7/excel/task-1.0.xlsx
+++ b/European_Coaching/day_7/excel/task-1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>CENTRAL BOARD OF SECONDARY EDUCATION</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>SOCIAL SCIENCE</t>
+  </si>
+  <si>
+    <t>Harsh Kumar</t>
+  </si>
+  <si>
+    <t>Harshita Devi</t>
+  </si>
+  <si>
+    <t>harshwardhan singh</t>
+  </si>
+  <si>
+    <t>Mordern Public School</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -161,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,36 +196,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +573,7 @@
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,259 +586,273 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="8">
+        <v>56472</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="9">
+        <v>37508</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>184</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>62</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="2">
         <f>SUM(C14+D14)</f>
         <v>82</v>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="2" t="str">
         <f>IF(E14&gt;90,"A1",IF(E14&gt;75,"A",IF(E14&gt;65,"B1",IF(E14&gt;55,"B",IF(E14&gt;40,"C1",IF(E14&gt;33,"D"))))))</f>
         <v>A</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>85</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>54</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>20</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
         <f t="shared" ref="E15:E18" si="0">SUM(C15+D15)</f>
         <v>74</v>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="F15" s="2" t="str">
         <f t="shared" ref="F15:F18" si="1">IF(E15&gt;90,"A1",IF(E15&gt;75,"A",IF(E15&gt;65,"B1",IF(E15&gt;55,"B",IF(E15&gt;40,"C1",IF(E15&gt;33,"D"))))))</f>
         <v>B1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>241</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="2">
         <v>56</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>20</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>86</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <v>50</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>B1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>87</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="2">
         <v>64</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <v>20</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F18" s="6" t="str">
+      <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="2">
         <v>61</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="2">
         <f>SUM(C20+D20)</f>
         <v>81</v>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="F20" s="2" t="str">
         <f>IF(E20&gt;90,"A",IF(E20&gt;80,"B",IF(E20&gt;70,"C",IF(E20&gt;60,"D"))))</f>
         <v>B</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="B6:F6"/>
@@ -792,8 +861,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
